--- a/data/tableOfDrivers.xlsx
+++ b/data/tableOfDrivers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="979" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t xml:space="preserve">driver</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">ernieStreet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ErnieTown</t>
   </si>
 </sst>
 </file>
@@ -76,6 +79,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -97,6 +101,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -170,14 +175,14 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.015306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -244,6 +249,9 @@
       </c>
       <c r="F3" s="0" t="n">
         <v>24685</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/tableOfDrivers.xlsx
+++ b/data/tableOfDrivers.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">street</t>
   </si>
   <si>
-    <t xml:space="preserve">houseNumber</t>
+    <t xml:space="preserve">streetNumber</t>
   </si>
   <si>
     <t xml:space="preserve">postCode</t>
@@ -175,7 +175,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
